--- a/Components/Jacdac_3D_Magnetometer_Maker_BOM.xlsx
+++ b/Components/Jacdac_3D_Magnetometer_Maker_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Jacdac\Jacdac-3D-Magnetometer\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D100BBA3-BB03-4908-A40A-5E6A83D6CD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C9E959-9C46-4D15-AE0D-405B0290D5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="510" windowWidth="11370" windowHeight="7635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jacdac-3D-Magnetometer_Maker" sheetId="1" r:id="rId1"/>
@@ -1168,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,8 +1651,8 @@
         <v>7</v>
       </c>
       <c r="I17" s="1">
-        <f>SUM(I2:I13)</f>
-        <v>10.720000000000002</v>
+        <f>SUM(I2:I14)</f>
+        <v>13.350000000000001</v>
       </c>
     </row>
   </sheetData>
